--- a/tai-lieu/database.xlsx
+++ b/tai-lieu/database.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>Majors</t>
   </si>
@@ -82,6 +82,9 @@
     <t>id_class</t>
   </si>
   <si>
+    <t>created_at</t>
+  </si>
+  <si>
     <t>id_subject</t>
   </si>
   <si>
@@ -104,9 +107,6 @@
   </si>
   <si>
     <t>state</t>
-  </si>
-  <si>
-    <t>created_at</t>
   </si>
   <si>
     <t>updated_at</t>
@@ -545,19 +545,22 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E26" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
@@ -565,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>1</v>
@@ -573,10 +576,10 @@
     </row>
     <row r="34">
       <c r="E34" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>2</v>
@@ -587,7 +590,7 @@
         <v>5</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>15</v>
@@ -603,7 +606,7 @@
     </row>
     <row r="37">
       <c r="E37" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38">

--- a/tai-lieu/database.xlsx
+++ b/tai-lieu/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\group1-j2school-project2\tai-lieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289C8BE2-E52A-4E2D-A664-058CA61BFECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94E327B-D0D8-42CD-879F-35B356616444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -49,9 +49,6 @@
     <t>student_id</t>
   </si>
   <si>
-    <t>ministries</t>
-  </si>
-  <si>
     <t>avatar</t>
   </si>
   <si>
@@ -101,6 +98,9 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>role</t>
   </si>
 </sst>
 </file>
@@ -430,8 +430,8 @@
   </sheetPr>
   <dimension ref="A7:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -439,16 +439,16 @@
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="13"/>
       <c r="G7" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
@@ -466,31 +466,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E11" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="15" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row r="16" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
       <c r="C16" s="2" t="s">
         <v>0</v>
       </c>
@@ -502,10 +498,8 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>1</v>
-      </c>
+    <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
       <c r="C17" s="3" t="s">
         <v>1</v>
       </c>
@@ -517,10 +511,8 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>4</v>
-      </c>
+    <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
       <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
@@ -532,71 +524,66 @@
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
+    <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
       <c r="C19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
       <c r="C20" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
       <c r="C21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>11</v>
-      </c>
+    <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
       <c r="C22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="C23" s="3" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="E24" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="E25" s="10" t="s">
         <v>7</v>
@@ -609,16 +596,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="C26" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="3" t="s">
@@ -630,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="5"/>
@@ -643,7 +630,7 @@
         <v>7</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G28" s="10"/>
     </row>
@@ -654,45 +641,45 @@
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C32" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E32" s="5"/>
       <c r="G32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E33" s="6"/>
       <c r="G33" s="11"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E34" s="5"/>
       <c r="G34" s="11"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E35" s="5"/>
       <c r="G35" s="5"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E36" s="5"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E38" s="5"/>
     </row>
   </sheetData>
